--- a/CSV File Format Example.xlsx
+++ b/CSV File Format Example.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -415,16 +414,16 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
